--- a/fips/select2.xlsx
+++ b/fips/select2.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="ПО_БД" sheetId="4" r:id="rId4"/>
+    <sheet name="sql_патенты" sheetId="5" r:id="rId5"/>
+    <sheet name="sql_soft" sheetId="6" r:id="rId6"/>
+    <sheet name="sql_all" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$AM$141</definedName>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10060" uniqueCount="3134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10407" uniqueCount="3481">
   <si>
     <t>2008 122 286</t>
   </si>
@@ -9443,6 +9446,1047 @@
   </si>
   <si>
     <t>http://www1.fips.ru/Archive/EVM/2016/2016.10.20/DOC/RUNW/000/002/016/660/949/document.pdf</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008122286','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008122288','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008135730','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008135732','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2268504','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2627117','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('111944','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005136460','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005103319','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005112060','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005123222','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005128572','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2004109571','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2295163','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2004113568','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2003102918','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2003128960','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2004102682','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2002110626','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2002133196','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2296376','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2001100318','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2216052','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2276810','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2597498','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2180974','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2267820','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2571608','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2573228','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2530314','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2494476','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2269164','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2466468','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2459281','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2436173','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2419890','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2393549','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2403628','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2344492','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2271578','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2230375','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2284585','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2291499','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2231133','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015105099','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2296376@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('160585','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('137406','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2004112818','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2000120052','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2163032','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2571519','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2477518','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2340930','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2312405','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2294011','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2582050','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('153322','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2582070','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2583445','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2598314','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2631139','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2628118','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2627117@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2628118@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014152070','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2432623','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2606566','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2621647','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014121524','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2621647@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2606566@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2439716','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2432623@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2530268','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2530267','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2161826','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2435232','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2295163@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2011121296','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2494476@001','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2223554','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('90251','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014133401','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('93173','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('170249','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015118431','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013125955','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013136376','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2012137028','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2012138225','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2525440','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009130688','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009102507','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2422921','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('172737','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007139510','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007148287','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2620569','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2297676','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015156735','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2597498@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2620569@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014112358','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008141478','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009100152','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008114596','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008118004','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008127509','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008128440','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('77717','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014154081','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015101131','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015121720','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015123005','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015143312','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014119876','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013140574','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013144921','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2012149444','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2012109382','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2011130550','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2011136720','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('172737@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2010126303','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007122372','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('99107842','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('111944@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('160585@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2466468@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2530314@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2010102675','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009106368','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008141557','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008107759','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007149546','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2418321','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2294023','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('99118670','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2006145366','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007146587','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009118381','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2317595','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005108961','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005109023','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005111457','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2006107558','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2006111475','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2294024','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2004109253','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005103316','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2002123509','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2001104348','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2001109249','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2002102115','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2000104842','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2000107717','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2302666','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2583150','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2277728','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2278424','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2571520','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2546311','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2541122','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2510955','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2284586','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2184399','patent','2');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2451346','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2454735','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2435232@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007133762','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2441287','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2231830','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2420813','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2422920','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2422921@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2403627','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2408087','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2364957','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2370831','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2377664','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2379767','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2349969','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2223554@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2355044','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2355045','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2363994','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2606656','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2287856','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('153322@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2472219','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2251750','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007100065','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014134745','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015114537','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013152529','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2571519@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2406163','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2606656@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2616553','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2617927','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009120252','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2189075','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2363994@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2316145','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2003136444','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2287856@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2582050@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2584461','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2589851','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2523220','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2472219@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2263358','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2419142','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2352979','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2598314@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2598314@002','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015101124','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2582070@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2493652','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2316051','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2583445@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2360281','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2493652@001','patent','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2385272','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2631139@001','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015120296','patent','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015619625','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013620792','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014615531','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016617878','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013612744','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013613087','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013614631','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015621015','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015615335','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015611298','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015615965','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015616068','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014660257','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013615302','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016611107','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013660389','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014621133','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618790','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013613012','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015611564','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013613030','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015614795','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016613008','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015616089','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015615962','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014660259','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016612138','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017611582','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016620687','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014614253','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013660388','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014610952','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016620158','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014612932','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015621723','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013611954','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017616360','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016662116','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017611682','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660201','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660298','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015621704','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618789','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017618845','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014618759','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013661041','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013613212','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618788','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016619272','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614627','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013617785','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014660647','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013616010','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013661040','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017611275','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014616594','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614761','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015616593','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015661717','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015660264','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015617545','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016617260','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016663957','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017611928','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618701','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016662114','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614235','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618102','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618103','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660032','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016661162','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614771','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614772','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618460','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618461','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016661551','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016661461','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614628','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614629','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016661470','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660469','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660470','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660471','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660472','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017610491','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014660988','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014615743','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014610248','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013617417','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014615701','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015611908','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014621356','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015612831','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013613084','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013617357','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016615248','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014612096','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013616770','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016611172','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013619455','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014612248','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015612243','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015612611','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013617603','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015663213','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015619392','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016662125','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015661118','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618056','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660199','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016661199','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016613811','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660198','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614787','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016610033','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017618075','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017618076','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016619271','soft','0');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016621520','soft','1');</t>
+  </si>
+  <si>
+    <t>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660949','soft','0');</t>
   </si>
 </sst>
 </file>
@@ -9552,13 +10596,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -9614,6 +10654,10 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -9697,8 +10741,34 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+    </tableStyle>
     <tableStyle name="TableStyleQueryResult" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
@@ -9762,30 +10832,30 @@
     <tableColumn id="54" uniqueName="54" name="f_22" queryTableFieldId="7" dataDxfId="17"/>
     <tableColumn id="55" uniqueName="55" name="f_24" queryTableFieldId="8" dataDxfId="16"/>
     <tableColumn id="56" uniqueName="56" name="f_45" queryTableFieldId="9" dataDxfId="15"/>
-    <tableColumn id="57" uniqueName="57" name="f_54" queryTableFieldId="10" dataDxfId="0"/>
-    <tableColumn id="58" uniqueName="58" name="f_72" queryTableFieldId="11" dataDxfId="14"/>
-    <tableColumn id="59" uniqueName="59" name="f_73" queryTableFieldId="12" dataDxfId="13"/>
-    <tableColumn id="60" uniqueName="60" name="f_98" queryTableFieldId="13" dataDxfId="12"/>
-    <tableColumn id="61" uniqueName="61" name="f_111" queryTableFieldId="14" dataDxfId="11"/>
-    <tableColumn id="62" uniqueName="62" name="f_112" queryTableFieldId="15" dataDxfId="10"/>
-    <tableColumn id="63" uniqueName="63" name="f_113" queryTableFieldId="16" dataDxfId="9"/>
-    <tableColumn id="64" uniqueName="64" name="f_114" queryTableFieldId="17" dataDxfId="8"/>
-    <tableColumn id="65" uniqueName="65" name="f_115" queryTableFieldId="18" dataDxfId="7"/>
-    <tableColumn id="66" uniqueName="66" name="f_116" queryTableFieldId="19" dataDxfId="6"/>
-    <tableColumn id="67" uniqueName="67" name="f_121" queryTableFieldId="20" dataDxfId="5"/>
-    <tableColumn id="68" uniqueName="68" name="f_124" queryTableFieldId="21" dataDxfId="4"/>
-    <tableColumn id="69" uniqueName="69" name="f_125" queryTableFieldId="22" dataDxfId="3"/>
-    <tableColumn id="70" uniqueName="70" name="f_126" queryTableFieldId="23" dataDxfId="2"/>
-    <tableColumn id="71" uniqueName="71" name="time_stamp" queryTableFieldId="24" dataDxfId="1"/>
+    <tableColumn id="57" uniqueName="57" name="f_54" queryTableFieldId="10" dataDxfId="14"/>
+    <tableColumn id="58" uniqueName="58" name="f_72" queryTableFieldId="11" dataDxfId="13"/>
+    <tableColumn id="59" uniqueName="59" name="f_73" queryTableFieldId="12" dataDxfId="12"/>
+    <tableColumn id="60" uniqueName="60" name="f_98" queryTableFieldId="13" dataDxfId="11"/>
+    <tableColumn id="61" uniqueName="61" name="f_111" queryTableFieldId="14" dataDxfId="10"/>
+    <tableColumn id="62" uniqueName="62" name="f_112" queryTableFieldId="15" dataDxfId="9"/>
+    <tableColumn id="63" uniqueName="63" name="f_113" queryTableFieldId="16" dataDxfId="8"/>
+    <tableColumn id="64" uniqueName="64" name="f_114" queryTableFieldId="17" dataDxfId="7"/>
+    <tableColumn id="65" uniqueName="65" name="f_115" queryTableFieldId="18" dataDxfId="6"/>
+    <tableColumn id="66" uniqueName="66" name="f_116" queryTableFieldId="19" dataDxfId="5"/>
+    <tableColumn id="67" uniqueName="67" name="f_121" queryTableFieldId="20" dataDxfId="4"/>
+    <tableColumn id="68" uniqueName="68" name="f_124" queryTableFieldId="21" dataDxfId="3"/>
+    <tableColumn id="69" uniqueName="69" name="f_125" queryTableFieldId="22" dataDxfId="2"/>
+    <tableColumn id="70" uniqueName="70" name="f_126" queryTableFieldId="23" dataDxfId="1"/>
+    <tableColumn id="71" uniqueName="71" name="time_stamp" queryTableFieldId="24" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleQueryResult" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9823,7 +10893,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9895,7 +10965,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10047,8 +11117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31107,7 +32177,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS141"/>
+  <dimension ref="A1:AR141"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A35" sqref="A1:XFD1048576"/>
@@ -44783,7 +45853,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT110"/>
+  <dimension ref="A1:AS110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -55849,8 +56919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y121"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64078,4 +65148,3866 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A227"/>
+  <sheetViews>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection sqref="A1:A227"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C2&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A2&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008122286','patent','0');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C3&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A3&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008122288','patent','0');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C4&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A4&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008135730','patent','0');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C5&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A5&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008135732','patent','0');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C6&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A6&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2268504','patent','1');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C7&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A7&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2627117','patent','1');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C8&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A8&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('111944','patent','1');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C9&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A9&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005136460','patent','1');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C10&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A10&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005103319','patent','0');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C11&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A11&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005112060','patent','0');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C12&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A12&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005123222','patent','0');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C13&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A13&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005128572','patent','0');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C14&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A14&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2004109571','patent','1');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C15&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A15&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2295163','patent','0');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C16&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A16&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2004113568','patent','0');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C17&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A17&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2003102918','patent','1');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C18&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A18&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2003128960','patent','2');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C19&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A19&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2004102682','patent','1');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C20&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A20&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2002110626','patent','0');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C21&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A21&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2002133196','patent','0');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C22&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A22&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2296376','patent','1');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C23&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A23&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2001100318','patent','0');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C24&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A24&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2216052','patent','2');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C25&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A25&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2276810','patent','1');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C26&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A26&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2597498','patent','1');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C27&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A27&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2180974','patent','0');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C28&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A28&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2267820','patent','1');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C29&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A29&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2571608','patent','2');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C30&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A30&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2573228','patent','0');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C31&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A31&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2530314','patent','1');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C32&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A32&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2494476','patent','2');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C33&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A33&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2269164','patent','2');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C34&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A34&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2466468','patent','1');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C35&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A35&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2459281','patent','0');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C36&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A36&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2436173','patent','0');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C37&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A37&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2419890','patent','1');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C38&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A38&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2393549','patent','1');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C39&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A39&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2403628','patent','1');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C40&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A40&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2344492','patent','0');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C41&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A41&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2271578','patent','1');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C42&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A42&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2230375','patent','1');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C43&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A43&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2284585','patent','0');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C44&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A44&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2291499','patent','0');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C45&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A45&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2231133','patent','0');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C46&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A46&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015105099','patent','0');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C47&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A47&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2296376@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C48&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A48&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('160585','patent','1');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C49&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A49&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('137406','patent','0');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C50&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A50&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2004112818','patent','1');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C51&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A51&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2000120052','patent','0');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C52&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A52&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2163032','patent','0');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C53&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A53&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2571519','patent','1');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C54&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A54&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2477518','patent','1');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C55&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A55&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2340930','patent','0');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C56&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A56&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2312405','patent','0');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C57&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A57&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2294011','patent','1');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C58&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A58&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2582050','patent','0');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C59&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A59&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('153322','patent','0');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C60&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A60&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2582070','patent','0');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C61&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A61&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2583445','patent','0');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C62&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A62&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2598314','patent','1');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C63&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A63&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2631139','patent','0');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C64&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A64&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2628118','patent','0');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C65&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A65&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2627117@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C66&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A66&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2628118@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C67&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A67&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014152070','patent','1');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C68&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A68&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2432623','patent','0');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C69&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A69&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2606566','patent','2');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C70&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A70&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2621647','patent','1');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C71&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A71&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014121524','patent','0');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C72&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A72&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2621647@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C73&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A73&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2606566@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C74&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A74&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2439716','patent','0');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C75&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A75&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2432623@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C76&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A76&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2530268','patent','0');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C77&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A77&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2530267','patent','0');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C78&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A78&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2161826','patent','1');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C79&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A79&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2435232','patent','0');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C80&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A80&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2295163@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C81&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A81&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2011121296','patent','2');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C82&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A82&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2494476@001','patent','2');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C83&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A83&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2223554','patent','1');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C84&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A84&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('90251','patent','0');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C85&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A85&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014133401','patent','0');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C86&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A86&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('93173','patent','0');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C87&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A87&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('170249','patent','0');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C88&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A88&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015118431','patent','0');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C89&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A89&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013125955','patent','0');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C90&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A90&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013136376','patent','1');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C91&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A91&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2012137028','patent','0');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C92&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A92&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2012138225','patent','2');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C93&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A93&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2525440','patent','0');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C94&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A94&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009130688','patent','0');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C95&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A95&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009102507','patent','0');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C96&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A96&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2422921','patent','0');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C97&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A97&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('172737','patent','0');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C98&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A98&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007139510','patent','0');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C99&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A99&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007148287','patent','1');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C100&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A100&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2620569','patent','0');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C101&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A101&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2297676','patent','1');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C102&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A102&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015156735','patent','0');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C103&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A103&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2597498@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C104&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A104&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2620569@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C105&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A105&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014112358','patent','0');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C106&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A106&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008141478','patent','0');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C107&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A107&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009100152','patent','0');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C108&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A108&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008114596','patent','1');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C109&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A109&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008118004','patent','2');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C110&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A110&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008127509','patent','1');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C111&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A111&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008128440','patent','0');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C112&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A112&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('77717','patent','0');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C113&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A113&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014154081','patent','2');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C114&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A114&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015101131','patent','0');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C115&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A115&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015121720','patent','1');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C116&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A116&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015123005','patent','0');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C117&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A117&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015143312','patent','0');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C118&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A118&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014119876','patent','0');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C119&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A119&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013140574','patent','0');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C120&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A120&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013144921','patent','0');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C121&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A121&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2012149444','patent','2');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C122&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A122&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2012109382','patent','0');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C123&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A123&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2011130550','patent','0');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C124&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A124&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2011136720','patent','0');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C125&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A125&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('172737@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C126&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A126&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2010126303','patent','0');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C127&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A127&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007122372','patent','0');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C128&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A128&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('99107842','patent','1');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C129&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A129&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('111944@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C130&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A130&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('160585@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C131&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A131&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2466468@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C132&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A132&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2530314@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C133&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A133&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2010102675','patent','0');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C134&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A134&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009106368','patent','0');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C135&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A135&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008141557','patent','1');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C136&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A136&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2008107759','patent','0');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C137&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A137&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007149546','patent','0');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C138&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A138&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2418321','patent','2');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C139&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A139&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2294023','patent','0');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C140&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A140&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('99118670','patent','1');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C141&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A141&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2006145366','patent','0');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C142&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A142&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007146587','patent','0');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C143&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A143&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009118381','patent','0');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C144&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A144&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2317595','patent','0');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C145&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A145&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005108961','patent','1');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C146&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A146&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005109023','patent','1');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C147&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A147&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005111457','patent','2');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C148&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A148&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2006107558','patent','0');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C149&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A149&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2006111475','patent','0');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C150&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A150&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2294024','patent','2');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C151&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A151&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2004109253','patent','1');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C152&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A152&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2005103316','patent','0');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C153&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A153&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2002123509','patent','1');</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C154&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A154&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2001104348','patent','2');</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C155&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A155&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2001109249','patent','1');</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C156&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A156&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2002102115','patent','0');</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C157&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A157&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2000104842','patent','0');</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C158&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A158&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2000107717','patent','0');</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C159&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A159&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2302666','patent','1');</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C160&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A160&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2583150','patent','0');</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C161&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A161&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2277728','patent','0');</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C162&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A162&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2278424','patent','0');</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C163&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A163&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2571520','patent','0');</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C164&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A164&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2546311','patent','2');</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C165&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A165&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2541122','patent','0');</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C166&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A166&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2510955','patent','0');</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C167&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A167&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2284586','patent','0');</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C168&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A168&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2184399','patent','2');</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C169&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A169&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2451346','patent','0');</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C170&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A170&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2454735','patent','1');</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C171&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A171&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2435232@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C172&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A172&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007133762','patent','0');</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C173&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A173&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2441287','patent','1');</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C174&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A174&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2231830','patent','0');</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C175&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A175&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2420813','patent','0');</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C176&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A176&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2422920','patent','0');</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C177&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A177&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2422921@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C178&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A178&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2403627','patent','0');</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C179&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A179&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2408087','patent','0');</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C180&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A180&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2364957','patent','0');</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C181&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A181&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2370831','patent','1');</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C182&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A182&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2377664','patent','0');</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C183&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A183&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2379767','patent','1');</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C184&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A184&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2349969','patent','0');</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C185&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A185&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2223554@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C186&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A186&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2355044','patent','0');</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C187&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A187&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2355045','patent','0');</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C188&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A188&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2363994','patent','0');</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C189&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A189&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2606656','patent','0');</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C190&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A190&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2287856','patent','0');</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C191&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A191&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('153322@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C192&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A192&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2472219','patent','0');</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C193&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A193&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2251750','patent','0');</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C194&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A194&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2007100065','patent','0');</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C195&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A195&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014134745','patent','0');</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C196&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A196&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015114537','patent','0');</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C197&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A197&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013152529','patent','0');</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C198&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A198&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2571519@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C199&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A199&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2406163','patent','0');</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C200&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A200&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2606656@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C201&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A201&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2616553','patent','0');</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C202&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A202&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2617927','patent','0');</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C203&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A203&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2009120252','patent','1');</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C204&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A204&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2189075','patent','0');</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C205&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A205&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2363994@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C206&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A206&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2316145','patent','0');</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C207&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A207&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2003136444','patent','0');</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C208&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A208&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2287856@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C209&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A209&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2582050@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C210&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A210&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2584461','patent','0');</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C211&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A211&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2589851','patent','0');</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C212&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A212&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2523220','patent','0');</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C213&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A213&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2472219@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C214&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A214&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2263358','patent','0');</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C215&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A215&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2419142','patent','0');</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C216&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A216&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2352979','patent','0');</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C217&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A217&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2598314@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C218&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A218&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2598314@002','patent','0');</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C219&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A219&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015101124','patent','0');</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C220&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A220&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2582070@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C221&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A221&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2493652','patent','0');</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C222&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A222&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2316051','patent','0');</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C223&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A223&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2583445@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C224&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A224&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2360281','patent','0');</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C225&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A225&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2493652@001','patent','0');</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C226&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A226&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2385272','patent','1');</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C227&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A227&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2631139@001','patent','1');</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;Патенты!C228&amp;"',"&amp;"'"&amp;"patent"&amp;"',"&amp;"'"&amp;Патенты!A228&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015120296','patent','1');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection sqref="A1:A120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C2&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A2&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015619625','soft','1');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C3&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A3&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013620792','soft','1');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C4&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A4&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014615531','soft','0');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C5&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A5&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016617878','soft','0');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C6&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A6&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013612744','soft','1');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C7&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A7&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013613087','soft','1');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C8&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A8&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013614631','soft','1');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C9&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A9&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015621015','soft','1');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C10&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A10&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015615335','soft','0');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C11&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A11&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015611298','soft','1');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C12&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A12&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015615965','soft','1');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C13&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A13&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015616068','soft','1');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C14&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A14&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014660257','soft','1');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C15&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A15&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013615302','soft','1');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C16&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A16&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016611107','soft','1');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C17&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A17&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013660389','soft','1');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C18&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A18&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014621133','soft','1');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C19&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A19&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618790','soft','1');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C20&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A20&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013613012','soft','0');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C21&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A21&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015611564','soft','1');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C22&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A22&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013613030','soft','1');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C23&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A23&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015614795','soft','1');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C24&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A24&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016613008','soft','0');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C25&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A25&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015616089','soft','1');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C26&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A26&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015615962','soft','1');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C27&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A27&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014660259','soft','1');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C28&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A28&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016612138','soft','1');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C29&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A29&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017611582','soft','1');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C30&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A30&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016620687','soft','1');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C31&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A31&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014614253','soft','1');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C32&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A32&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013660388','soft','1');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C33&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A33&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014610952','soft','1');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C34&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A34&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016620158','soft','1');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C35&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A35&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014612932','soft','1');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C36&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A36&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015621723','soft','1');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C37&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A37&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013611954','soft','0');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C38&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A38&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017616360','soft','1');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C39&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A39&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016662116','soft','1');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C40&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A40&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017611682','soft','1');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C41&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A41&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660201','soft','1');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C42&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A42&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660298','soft','1');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C43&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A43&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015621704','soft','1');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C44&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A44&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618789','soft','1');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C45&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A45&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017618845','soft','1');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C46&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A46&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014618759','soft','1');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C47&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A47&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013661041','soft','1');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C48&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A48&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013613212','soft','0');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C49&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A49&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618788','soft','1');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C50&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A50&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016619272','soft','1');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C51&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A51&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614627','soft','1');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C52&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A52&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013617785','soft','1');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C53&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A53&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014660647','soft','1');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C54&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A54&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013616010','soft','0');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C55&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A55&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013661040','soft','1');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C56&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A56&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017611275','soft','1');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C57&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A57&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014616594','soft','1');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C58&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A58&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614761','soft','1');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C59&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A59&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015616593','soft','1');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C60&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A60&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015661717','soft','1');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C61&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A61&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015660264','soft','0');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C62&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A62&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015617545','soft','1');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C63&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A63&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016617260','soft','1');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C64&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A64&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016663957','soft','1');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C65&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A65&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017611928','soft','1');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C66&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A66&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618701','soft','1');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C67&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A67&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016662114','soft','1');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C68&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A68&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614235','soft','1');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C69&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A69&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618102','soft','1');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C70&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A70&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618103','soft','1');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C71&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A71&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660032','soft','1');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C72&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A72&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016661162','soft','1');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C73&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A73&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614771','soft','1');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C74&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A74&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614772','soft','1');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C75&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A75&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618460','soft','1');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C76&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A76&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618461','soft','1');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C77&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A77&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016661551','soft','1');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C78&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A78&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016661461','soft','1');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C79&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A79&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614628','soft','1');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C80&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A80&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614629','soft','1');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C81&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A81&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016661470','soft','1');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C82&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A82&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660469','soft','1');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C83&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A83&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660470','soft','1');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C84&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A84&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660471','soft','1');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C85&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A85&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660472','soft','1');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C86&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A86&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017610491','soft','1');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C87&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A87&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014660988','soft','0');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C88&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A88&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014615743','soft','0');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C89&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A89&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014610248','soft','0');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C90&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A90&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013617417','soft','1');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C91&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A91&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014615701','soft','0');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C92&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A92&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015611908','soft','0');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C93&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A93&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014621356','soft','1');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C94&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A94&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015612831','soft','0');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C95&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A95&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013613084','soft','1');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C96&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A96&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013617357','soft','1');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C97&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A97&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016615248','soft','0');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C98&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A98&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014612096','soft','0');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C99&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A99&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013616770','soft','0');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C100&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A100&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016611172','soft','0');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C101&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A101&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013619455','soft','1');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C102&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A102&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2014612248','soft','1');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C103&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A103&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015612243','soft','0');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C104&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A104&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015612611','soft','0');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C105&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A105&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2013617603','soft','0');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C106&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A106&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015663213','soft','0');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C107&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A107&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015619392','soft','0');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C108&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A108&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016662125','soft','1');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C109&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A109&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2015661118','soft','1');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C110&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A110&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016618056','soft','0');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C111&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A111&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660199','soft','1');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C112&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A112&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016661199','soft','1');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C113&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A113&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016613811','soft','0');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C114&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A114&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660198','soft','0');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C115&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A115&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016614787','soft','1');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C116&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A116&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016610033','soft','0');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C117&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A117&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017618075','soft','0');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C118&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A118&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2017618076','soft','0');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C119&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A119&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016619271','soft','0');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C120&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A120&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016621520','soft','1');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>"INSERT review  ( `ref_id`, `type`, `relevance`) VALUES("&amp;"'"&amp;ПО_БД!C121&amp;"',"&amp;"'"&amp;"soft"&amp;"',"&amp;"'"&amp;ПО_БД!A121&amp;"'"&amp;");"</f>
+        <v>INSERT review  ( `ref_id`, `type`, `relevance`) VALUES('2016660949','soft','0');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A347"/>
+  <sheetViews>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="O351" sqref="O351"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>